--- a/Admission/Recaps/Recap Schedule.xlsx
+++ b/Admission/Recaps/Recap Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>Raphael</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Tu 30.05.2017</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -725,7 +728,7 @@
   <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +846,9 @@
       <c r="E3" s="15"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="4"/>
@@ -884,7 +889,9 @@
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -1063,7 +1070,9 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="15"/>
@@ -1176,7 +1185,9 @@
       <c r="E12" s="15"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="4"/>
@@ -1212,7 +1223,9 @@
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
@@ -1254,7 +1267,9 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1286,7 +1301,9 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -1359,7 +1376,9 @@
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="15"/>

--- a/Admission/Recaps/Recap Schedule.xlsx
+++ b/Admission/Recaps/Recap Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
   <si>
     <t>Raphael</t>
   </si>
@@ -728,7 +728,7 @@
   <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +966,9 @@
       <c r="J6" s="15"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -1040,7 +1042,9 @@
       <c r="J8" s="15"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>

--- a/Admission/Recaps/Recap Schedule.xlsx
+++ b/Admission/Recaps/Recap Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
   <si>
     <t>Raphael</t>
   </si>
@@ -728,7 +728,7 @@
   <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1194,9 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -1348,7 +1350,9 @@
       <c r="H16" s="4"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
